--- a/output/part1/grs_size_bm_op3.xlsx
+++ b/output/part1/grs_size_bm_op3.xlsx
@@ -462,87 +462,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.866441772653594</v>
+        <v>10.97786194618413</v>
       </c>
       <c r="B2" t="n">
-        <v>1.050270981295398e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06220731301846745</v>
+        <v>0.00497377543281906</v>
       </c>
       <c r="D2" t="n">
-        <v>-20.19490024677766</v>
+        <v>0.8429238163007154</v>
       </c>
       <c r="E2" t="n">
-        <v>407.8339959773004</v>
+        <v>0.7105205600869624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.941704746347606</v>
+        <v>8.381020510234951</v>
       </c>
       <c r="B3" t="n">
-        <v>2.786178843194875e-09</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05403369919231523</v>
+        <v>0.005708139113102525</v>
       </c>
       <c r="D3" t="n">
-        <v>-17.54142900898567</v>
+        <v>0.9673791006814036</v>
       </c>
       <c r="E3" t="n">
-        <v>307.701731677284</v>
+        <v>0.9358223244351614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.860456179336797</v>
+        <v>10.47514609081691</v>
       </c>
       <c r="B4" t="n">
-        <v>4.309321455231441e-09</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04629964122600382</v>
+        <v>0.005553237262322131</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.03065460717076</v>
+        <v>0.9411273205245645</v>
       </c>
       <c r="E4" t="n">
-        <v>225.9205779200637</v>
+        <v>0.8857206334377464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.220010853617614</v>
+        <v>10.09077903288517</v>
       </c>
       <c r="B5" t="n">
-        <v>1.687538997430238e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08297701141078075</v>
+        <v>0.006736181214417914</v>
       </c>
       <c r="D5" t="n">
-        <v>-26.93754780437119</v>
+        <v>1.141605135423672</v>
       </c>
       <c r="E5" t="n">
-        <v>725.6314817127829</v>
+        <v>1.303262285225701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.103089973967777</v>
+        <v>7.96805397798502</v>
       </c>
       <c r="B6" t="n">
-        <v>2.518968501563634e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0441113992773671</v>
+        <v>0.005732176129669167</v>
       </c>
       <c r="D6" t="n">
-        <v>-14.32026662022438</v>
+        <v>0.9714527413212976</v>
       </c>
       <c r="E6" t="n">
-        <v>205.0700360743125</v>
+        <v>0.943720428620664</v>
       </c>
     </row>
   </sheetData>
